--- a/biology/Botanique/Aristolochiaceae/Aristolochiaceae.xlsx
+++ b/biology/Botanique/Aristolochiaceae/Aristolochiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aristolochiaceae (Aristolochiacées) regroupe des plantes dicotylédones ; elle est de divergence ancienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Aristolochia lui-même issu du nom grec de la plante aristos (excellent) et locheia (accouchement), faisant référence à son utilisation ancienne dans l'obstétrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Aristolochia lui-même issu du nom grec de la plante aristos (excellent) et locheia (accouchement), faisant référence à son utilisation ancienne dans l'obstétrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes, des lianes ou des plantes herbacées des régions tempérées chaudes, tropicales et rarement boréales.
 Quelques espèces des genres Aristolochia ou Asarum sont cultivées comme plantes ornementales. Les rhizomes de l'Asarum canadense peuvent être utilisés comme substitut du gingembre véritable.
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place maintenant cette famille dans l'ordre  des Piperales.
-La classification phylogénétique APG IV (2016)[2] ajoute à cette famille les Lactoridaceae et Hydnoraceae.
+La classification phylogénétique APG IV (2016) ajoute à cette famille les Lactoridaceae et Hydnoraceae.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (20 juillet 2017)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (20 juillet 2017) :
 genre Aristolochia
 genre Asarum
 genre Hydnora
@@ -617,7 +637,7 @@
 genre Prosopanche
 genre Saruma
 genre Thottea
-Selon NCBI  (20 juillet 2017)[4] :
+Selon NCBI  (20 juillet 2017) :
 genre Aristolochia
 genre Asarum
 genre Holostylis
@@ -627,7 +647,7 @@
 genre Prosopanche
 genre Saruma
 genre Thottea
-Selon Catalogue of Life                                   (20 juillet 2017)[5] :
+Selon Catalogue of Life                                   (20 juillet 2017) :
 genre Aristolochia
 genre Asarum
 genre Hexastylis
